--- a/Descriptive Statistics/Categorical/Geographic_Locations__Target_Issuer__summary.xlsx
+++ b/Descriptive Statistics/Categorical/Geographic_Locations__Target_Issuer__summary.xlsx
@@ -460,7 +460,7 @@
         <v>68</v>
       </c>
       <c r="C2" t="n">
-        <v>20.86</v>
+        <v>22.01</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C3" t="n">
-        <v>19.02</v>
+        <v>18.45</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="n">
-        <v>11.96</v>
+        <v>11.97</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>9.199999999999999</v>
+        <v>9.390000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>8.279999999999999</v>
+        <v>8.09</v>
       </c>
     </row>
     <row r="7">
@@ -525,33 +525,33 @@
         <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>5.83</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>5.21</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>5.21</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>3.99</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>3.07</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>2.76</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +603,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="14">
@@ -616,7 +616,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="15">
@@ -629,7 +629,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>

--- a/Descriptive Statistics/Categorical/Geographic_Locations__Target_Issuer__summary.xlsx
+++ b/Descriptive Statistics/Categorical/Geographic_Locations__Target_Issuer__summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
         <v>68</v>
       </c>
       <c r="C2" t="n">
-        <v>22.01</v>
+        <v>23.53</v>
       </c>
     </row>
     <row r="3">
@@ -470,36 +470,36 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C3" t="n">
-        <v>18.45</v>
+        <v>18.34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
-        <v>11.97</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>9.390000000000001</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>8.09</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n">
-        <v>6.15</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>5.18</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>4.85</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>3.88</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>2.59</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="12">
@@ -587,49 +587,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>2.59</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1.62</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>1.62</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0.97</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,20 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>0.65</v>
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
